--- a/CAESCIR/SimiliarityQuantifier/input/cleaned Novel24_JJ.xlsx
+++ b/CAESCIR/SimiliarityQuantifier/input/cleaned Novel24_JJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Documents\FIU-Programs-main\CAESCIR\SimiliarityQuantifier\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8175BB-44B0-4B4E-8203-E16685C54FAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E484E7-44C4-4609-B4BC-1C92F340E78B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NRC labeled novel24" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="398">
   <si>
     <t>sentence</t>
   </si>
@@ -417,9 +417,6 @@
     <t>God</t>
   </si>
   <si>
-    <t>creative glory</t>
-  </si>
-  <si>
     <t>In the IMAGES, therefore (only the IMAGES), of these Children of Light and of Himself, He made Man--that is, He caused the Earth to be inhabited and DOMINATED by beings composed of Earth's component parts, animal, vegetable, and mineral, giving them their superiority by placing within them His 'LIKENESS' in the form of an ELECTRIC FLAME or GERM of spiritual existence combined with its companion working-force of WILL-POWER.</t>
   </si>
   <si>
@@ -486,18 +483,9 @@
     <t>enjoys</t>
   </si>
   <si>
-    <t>feel compassion, tenderness, forgiveness, patience</t>
-  </si>
-  <si>
     <t>Granting Him, therefore, these attributes (and it is both blasphemous and unreasonable to DENY HIM THOSE VIRTUES WHICH DISTINGUISH THE BEST OF MEN), it is easily understood how He, the All-Fair Beneficent Ruler of the Central Sphere, perceiving the long distance to which the Earth was propelled, like a ball flung too far out, from the glory of His Electric Ring, saw also that the creatures He had made in His image were in danger of crushing that image completely out, and with it all remembrance of Him, in the fatal attention they gave to their merely earthly surroundings, lacking, as they did, and not possessing sufficient energy to seek, electric attraction.</t>
   </si>
   <si>
-    <t>Him</t>
-  </si>
-  <si>
-    <t>Granting</t>
-  </si>
-  <si>
     <t>In brief, this Earth and God's World were like America and Europe before the Atlantic Cable was laid.</t>
   </si>
   <si>
@@ -555,9 +543,6 @@
     <t>Within that vessel of absolute purity God placed an Emanation of His own radiance--no germ or small flame such as is given to us in our bodies to cultivate and foster, but a complete immortal Spirit, a portion of God Himself, wise, sinless, and strong.</t>
   </si>
   <si>
-    <t>absolute purity</t>
-  </si>
-  <si>
     <t>This Spirit, pent up in clay, was born as a helpless babe, grew up as man--as man taught, comforted, was slain and buried; but as pure Spirit rose again and returned in peace to Heaven, His mission done.</t>
   </si>
   <si>
@@ -678,18 +663,9 @@
     <t>Thus He was easily able to heal sick and diseased persons by a touch or a look.</t>
   </si>
   <si>
-    <t>able to heal</t>
-  </si>
-  <si>
     <t>The woman who caught at His garment in the crowd was cured of her long-standing ailment; and we see that Christ was aware of His own electric force by the words He used on that occasion: 'WHO TOUCHED ME?</t>
   </si>
   <si>
-    <t>The woman</t>
-  </si>
-  <si>
-    <t>caught at His garment in the crowd was cured</t>
-  </si>
-  <si>
     <t>FOR I FEEL THAT SOME VIRTUE IS GONE OUT OF ME'--which is the exact feeling that a physical electrician experiences at this day after employing his powers on a subject.</t>
   </si>
   <si>
@@ -750,12 +726,6 @@
     <t>The descent of the Holy Ghost, by which term is meant an ever- flowing current of the inspired working Intelligence of the Creator, was purely electric in character: 'Suddenly there came a sound from Heaven as of a rushing mighty wind, and it filled all the house where they were sitting.</t>
   </si>
   <si>
-    <t>the Holy Ghost</t>
-  </si>
-  <si>
-    <t>descent</t>
-  </si>
-  <si>
     <t>And there appeared unto them CLOVEN TONGUES LIKE AS OF FIRE, and sat upon each of them.'</t>
   </si>
   <si>
@@ -783,9 +753,6 @@
     <t>For as the Creed itself says, He was 'God of God, LIGHT OF LIGHT.</t>
   </si>
   <si>
-    <t>God of God</t>
-  </si>
-  <si>
     <t>Then we go on through the circumstances of Christ's birth, life, death, and resurrection, and our profession of faith brings us to 'I believe in the Holy Ghost, the Lord and Giver of Life, who proceedeth from the Father and the Son,' etc.</t>
   </si>
   <si>
@@ -810,9 +777,6 @@
     <t>After the birth of Christ, she was still kept on earth, to follow His career to the end.</t>
   </si>
   <si>
-    <t>the birth of Christ</t>
-  </si>
-  <si>
     <t>career</t>
   </si>
   <si>
@@ -825,9 +789,6 @@
     <t>she</t>
   </si>
   <si>
-    <t>suffered her humanity to get the better of her in anxious inquiries</t>
-  </si>
-  <si>
     <t>Wist ye not that I must be about My Father's business?'</t>
   </si>
   <si>
@@ -846,36 +807,15 @@
     <t>And why, it may be asked, if Mary was really an imprisoned immortal Spirit, sinless and joyous, should she be forced to suffer all the weaknesses, sorrows, and anxieties of any ordinary woman and mother?</t>
   </si>
   <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>really an imprisoned immortal Spirit</t>
-  </si>
-  <si>
-    <t>sinless and joyous</t>
-  </si>
-  <si>
-    <t>forced to suffer all the weaknesses, sorrows, and anxieties</t>
-  </si>
-  <si>
     <t>SIMPLY AS AN EXAMPLE TO WOMEN who are the mothers of the human race; and who, being thus laid under a heavy responsibility, need sympathetic guidance.</t>
   </si>
   <si>
-    <t>the mothers of the human race</t>
-  </si>
-  <si>
-    <t>need sympathetic guidance</t>
-  </si>
-  <si>
     <t>Mary's life teaches women that the virtues they need are--obedience, purity, meekness, patience, long-suffering, modesty, self-denial, and endurance.</t>
   </si>
   <si>
     <t>She loved to hold a secondary position; she placed herself in willing subjection to Joseph--a man of austere and simple life, advanced in years, and weighted with the cares of a family by a previous marriage--who wedded her by AN INFLUENCE WHICH COMPELLED HIM to become her protector in the eyes of the world.</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>Out of these facts, simple as they are, can be drawn the secret of happiness for women--a secret and a lesson that, if learned by heart, would bring them and those they love out of storm and bewilderment into peace and safety.</t>
   </si>
   <si>
@@ -888,9 +828,6 @@
     <t>them</t>
   </si>
   <si>
-    <t>out of storm and bewilderment into peace and safety</t>
-  </si>
-  <si>
     <t>FOR THOSE WHO HAVE ONCE BECOME AWARE OF THE EXISTENCE OF THE CENTRAL SPHERE AND OF THE ELECTRIC RING SURROUNDING IT, AND WHO ARE ABLE TO REALISE TO THE FULL THE GIGANTIC AS WELL AS MINUTE WORK PERFORMED BY THE ELECTRIC WAVES AROUND US AND WITHIN US, there can no longer be any doubt as to all the facts of Christianity, as none of them, VIEWED BY THE ELECTRIC THEORY, are otherwise than in accordance with the Creator's love and sympathy with even the smallest portion of His creation.</t>
   </si>
   <si>
@@ -954,12 +891,6 @@
     <t>So that if a man, by choice, forces his soul DOWNWARD to inhabit hereafter the bodies of dogs, horses, and other like animals, he should know that he does so at the cost of everything except Remembrance.</t>
   </si>
   <si>
-    <t>a man</t>
-  </si>
-  <si>
-    <t>forces</t>
-  </si>
-  <si>
     <t>Eternal Retrogression means that the hopelessly tainted electric germ recoils further and further from the Pure Centre whence it sprang, ALWAYS BEARING WITHIN ITSELF the knowledge of WHAT IT WAS ONCE and WHAT IT MIGHT HAVE BEEN.</t>
   </si>
   <si>
@@ -975,15 +906,6 @@
     <t>The old painters who depicted a halo of light round the head of their Virgins and Saints did so out of a correct impulse which they did not hesitate to obey.</t>
   </si>
   <si>
-    <t>their Virgins</t>
-  </si>
-  <si>
-    <t>virgins</t>
-  </si>
-  <si>
-    <t>not hesitate to obey</t>
-  </si>
-  <si>
     <t>[Footnote: An impulse which led them vaguely to foresee, though, not to explain, the electric principle of spiritual life.]</t>
   </si>
   <si>
@@ -1035,15 +957,6 @@
     <t>Lovers of God and followers of Christ must, in the first place, have perfect Unity; and the bond uniting them must be an electric one of love and faith.</t>
   </si>
   <si>
-    <t>Lovers of God</t>
-  </si>
-  <si>
-    <t>Lovers of God and followers of Christ</t>
-  </si>
-  <si>
-    <t>perfect Unity</t>
-  </si>
-  <si>
     <t>No true Christian should be able to hate, despise, or envy the other.</t>
   </si>
   <si>
@@ -1119,12 +1032,6 @@
     <t>expect</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>leaving</t>
-  </si>
-  <si>
     <t>My heart sank at the thought of parting from her, and I looked wistfully at her lovely face.</t>
   </si>
   <si>
@@ -1194,9 +1101,6 @@
     <t>But you look fitter to receive the embraces of life than of death, Zara."</t>
   </si>
   <si>
-    <t>embraces of life than of death</t>
-  </si>
-  <si>
     <t xml:space="preserve">They are both one and the same thing, she answered; "or rather, the one leads to the other. </t>
   </si>
   <si>
@@ -1278,40 +1182,43 @@
     <t>tenderly</t>
   </si>
   <si>
-    <t>kissed</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>good repose</t>
-  </si>
-  <si>
-    <t>mingled pain</t>
-  </si>
-  <si>
-    <t>wonder, and gratitude</t>
-  </si>
-  <si>
-    <t>perfectly calm</t>
-  </si>
-  <si>
-    <t>happily</t>
-  </si>
-  <si>
-    <t>awaited</t>
-  </si>
-  <si>
-    <t>confide in and trust</t>
-  </si>
-  <si>
-    <t>too patient</t>
-  </si>
-  <si>
-    <t>shape of pure electric radiance</t>
-  </si>
-  <si>
-    <t>radiant and immortal Spirits</t>
+    <t>his</t>
+  </si>
+  <si>
+    <t>surrounded by radiant and immortal Spirits</t>
+  </si>
+  <si>
+    <t>taken pity on the few</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>highest emotions</t>
+  </si>
+  <si>
+    <t>completely confide in and trust</t>
+  </si>
+  <si>
+    <t>too patient to be ever wrathful</t>
+  </si>
+  <si>
+    <t>wonderful skill</t>
+  </si>
+  <si>
+    <t>suffered her humanity</t>
+  </si>
+  <si>
+    <t>Electric Radiance</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>helpless</t>
+  </si>
+  <si>
+    <t>out of storm and bewilderment</t>
   </si>
 </sst>
 </file>
@@ -1668,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DA211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F83" sqref="B83:F83"/>
+    <sheetView tabSelected="1" topLeftCell="B118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -2040,10 +1947,16 @@
         <v>108</v>
       </c>
       <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
         <v>110</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>112</v>
       </c>
       <c r="J3" t="s">
         <v>107</v>
@@ -2052,10 +1965,16 @@
         <v>108</v>
       </c>
       <c r="L3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" t="s">
         <v>110</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>111</v>
+      </c>
+      <c r="O3" t="s">
+        <v>112</v>
       </c>
       <c r="R3" t="s">
         <v>107</v>
@@ -2072,10 +1991,10 @@
         <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="C4" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="D4" t="s">
         <v>110</v>
@@ -2141,12 +2060,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>128</v>
       </c>
@@ -2154,313 +2073,310 @@
         <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
         <v>110</v>
       </c>
-      <c r="J18" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" t="s">
         <v>129</v>
       </c>
-      <c r="K18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" t="s">
-        <v>109</v>
-      </c>
-      <c r="M18" t="s">
-        <v>110</v>
-      </c>
-      <c r="N18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="C29" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="B30" t="s">
         <v>129</v>
       </c>
       <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" t="s">
         <v>143</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
         <v>145</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>146</v>
-      </c>
-      <c r="C31" t="s">
-        <v>147</v>
       </c>
       <c r="D31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>389</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
         <v>151</v>
       </c>
-      <c r="B33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="162.75" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D33" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" t="s">
-        <v>149</v>
-      </c>
-      <c r="K33" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L33" t="s">
-        <v>110</v>
-      </c>
-      <c r="M33" t="s">
-        <v>109</v>
-      </c>
-      <c r="N33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="162.75" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="40" spans="1:6" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="41" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="43" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="44" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="93" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="48" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="49" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="50" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="51" spans="1:13" ht="93" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="52" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="53" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="54" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="93" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="B54" t="s">
+        <v>395</v>
+      </c>
+      <c r="C54" t="s">
+        <v>396</v>
+      </c>
+      <c r="D54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+    <row r="57" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B57" t="s">
         <v>176</v>
       </c>
-      <c r="D53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B57" t="s">
-        <v>181</v>
-      </c>
       <c r="C57" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="D57" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B60" t="s">
         <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D60" t="s">
         <v>110</v>
@@ -2469,54 +2385,51 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="D61" t="s">
         <v>109</v>
       </c>
       <c r="J61" t="s">
+        <v>182</v>
+      </c>
+      <c r="K61" t="s">
+        <v>183</v>
+      </c>
+      <c r="L61" t="s">
+        <v>184</v>
+      </c>
+      <c r="M61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K61" t="s">
+    </row>
+    <row r="64" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L61" t="s">
+      <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s">
         <v>189</v>
-      </c>
-      <c r="M61" t="s">
-        <v>190</v>
-      </c>
-      <c r="N61" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B64" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" t="s">
-        <v>194</v>
       </c>
       <c r="D64" t="s">
         <v>109</v>
@@ -2524,32 +2437,41 @@
     </row>
     <row r="65" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
+      </c>
+      <c r="B67" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B70" t="s">
         <v>107</v>
@@ -2558,30 +2480,36 @@
         <v>108</v>
       </c>
       <c r="D70" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" t="s">
         <v>110</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>111</v>
+      </c>
+      <c r="G70" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B74" t="s">
         <v>107</v>
@@ -2590,41 +2518,47 @@
         <v>108</v>
       </c>
       <c r="D74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" t="s">
         <v>110</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>111</v>
+      </c>
+      <c r="G74" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="93" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B79" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D79" t="s">
         <v>110</v>
@@ -2632,11 +2566,14 @@
       <c r="E79" t="s">
         <v>111</v>
       </c>
+      <c r="F79" t="s">
+        <v>112</v>
+      </c>
       <c r="J79" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K79" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L79" t="s">
         <v>111</v>
@@ -2644,548 +2581,350 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+    <row r="87" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B82" t="s">
-        <v>149</v>
-      </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="88" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D82" t="s">
-        <v>110</v>
-      </c>
-      <c r="E82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+    </row>
+    <row r="89" spans="1:5" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B89" t="s">
         <v>219</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C89" t="s">
         <v>220</v>
       </c>
-      <c r="D83" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="D89" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+    <row r="91" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+    <row r="94" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+    <row r="95" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B89" t="s">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="97" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D89" t="s">
-        <v>189</v>
-      </c>
-      <c r="E89" t="s">
-        <v>150</v>
-      </c>
-      <c r="F89" t="s">
-        <v>190</v>
-      </c>
-      <c r="G89" t="s">
-        <v>112</v>
-      </c>
-      <c r="H89" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B97" t="s">
-        <v>200</v>
-      </c>
-      <c r="C97" t="s">
-        <v>237</v>
       </c>
       <c r="D97" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
+    <row r="107" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+      <c r="B107" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107" t="s">
         <v>240</v>
-      </c>
-      <c r="B100" t="s">
-        <v>241</v>
-      </c>
-      <c r="C100" t="s">
-        <v>242</v>
-      </c>
-      <c r="D100" t="s">
-        <v>112</v>
-      </c>
-      <c r="E100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B107" t="s">
-        <v>200</v>
-      </c>
-      <c r="C107" t="s">
-        <v>250</v>
       </c>
       <c r="D107" t="s">
         <v>111</v>
       </c>
-      <c r="E107" t="s">
-        <v>110</v>
-      </c>
-      <c r="F107" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B108" t="s">
-        <v>149</v>
-      </c>
-      <c r="C108" t="s">
-        <v>252</v>
-      </c>
-      <c r="D108" t="s">
-        <v>109</v>
-      </c>
-      <c r="E108" t="s">
-        <v>110</v>
-      </c>
-      <c r="F108" t="s">
-        <v>111</v>
-      </c>
-      <c r="G108" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="69.75" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="69.75" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="69.75" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" ht="46.5" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C113" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D113" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B114" t="s">
-        <v>211</v>
-      </c>
-      <c r="C114" t="s">
-        <v>261</v>
-      </c>
-      <c r="D114" t="s">
-        <v>109</v>
-      </c>
-      <c r="E114" t="s">
-        <v>110</v>
-      </c>
-      <c r="F114" t="s">
-        <v>111</v>
-      </c>
-      <c r="G114" t="s">
-        <v>112</v>
-      </c>
-      <c r="J114" t="s">
-        <v>200</v>
-      </c>
-      <c r="K114" t="s">
-        <v>262</v>
-      </c>
-      <c r="L114" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" ht="46.5" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B116" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C116" t="s">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="D116" t="s">
         <v>112</v>
       </c>
-      <c r="E116" t="s">
-        <v>111</v>
-      </c>
-      <c r="F116" t="s">
-        <v>109</v>
-      </c>
-      <c r="G116" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" ht="46.5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" ht="46.5" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" ht="46.5" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B122" t="s">
-        <v>273</v>
-      </c>
-      <c r="C122" t="s">
-        <v>274</v>
-      </c>
-      <c r="D122" t="s">
-        <v>111</v>
-      </c>
-      <c r="J122" t="s">
-        <v>273</v>
-      </c>
-      <c r="K122" t="s">
-        <v>275</v>
-      </c>
-      <c r="L122" t="s">
-        <v>110</v>
-      </c>
-      <c r="R122" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="93" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B126" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126" t="s">
         <v>265</v>
-      </c>
-      <c r="S122" t="s">
-        <v>276</v>
-      </c>
-      <c r="T122" t="s">
-        <v>190</v>
-      </c>
-      <c r="U122" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B123" t="s">
-        <v>278</v>
-      </c>
-      <c r="C123" t="s">
-        <v>278</v>
-      </c>
-      <c r="D123" t="s">
-        <v>109</v>
-      </c>
-      <c r="E123" t="s">
-        <v>110</v>
-      </c>
-      <c r="F123" t="s">
-        <v>111</v>
-      </c>
-      <c r="G123" t="s">
-        <v>144</v>
-      </c>
-      <c r="J123" t="s">
-        <v>278</v>
-      </c>
-      <c r="K123" t="s">
-        <v>279</v>
-      </c>
-      <c r="L123" t="s">
-        <v>110</v>
-      </c>
-      <c r="M123" t="s">
-        <v>111</v>
-      </c>
-      <c r="N123" t="s">
-        <v>112</v>
-      </c>
-      <c r="O123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" ht="93" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B125" t="s">
-        <v>258</v>
-      </c>
-      <c r="C125" t="s">
-        <v>282</v>
-      </c>
-      <c r="D125" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B126" t="s">
-        <v>284</v>
-      </c>
-      <c r="C126" t="s">
-        <v>285</v>
       </c>
       <c r="D126" t="s">
         <v>111</v>
       </c>
       <c r="E126" t="s">
-        <v>109</v>
-      </c>
-      <c r="F126" t="s">
         <v>110</v>
       </c>
       <c r="J126" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="K126" t="s">
-        <v>147</v>
+        <v>397</v>
       </c>
       <c r="L126" t="s">
-        <v>110</v>
-      </c>
-      <c r="R126" t="s">
-        <v>286</v>
-      </c>
-      <c r="S126" t="s">
-        <v>287</v>
-      </c>
-      <c r="T126" t="s">
-        <v>190</v>
-      </c>
-      <c r="U126" t="s">
-        <v>150</v>
-      </c>
-      <c r="V126" t="s">
+        <v>185</v>
+      </c>
+      <c r="M126" t="s">
+        <v>149</v>
+      </c>
+      <c r="N126" t="s">
         <v>112</v>
       </c>
-      <c r="W126" t="s">
-        <v>109</v>
-      </c>
-      <c r="X126" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y126" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" ht="139.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:14" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="B127" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C127" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="D127" t="s">
         <v>110</v>
       </c>
       <c r="E127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C130" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="D130" t="s">
         <v>109</v>
@@ -3193,66 +2932,66 @@
     </row>
     <row r="131" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="93" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="93" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="B138" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="C138" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="D138" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E138" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F138" t="s">
         <v>112</v>
       </c>
       <c r="G138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J138" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="K138" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="L138" t="s">
         <v>109</v>
@@ -3263,367 +3002,292 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B141" t="s">
-        <v>309</v>
-      </c>
-      <c r="C141" t="s">
-        <v>310</v>
-      </c>
-      <c r="D141" t="s">
-        <v>190</v>
-      </c>
-      <c r="E141" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B146" t="s">
-        <v>316</v>
-      </c>
-      <c r="C146" t="s">
-        <v>317</v>
-      </c>
-      <c r="D146" t="s">
-        <v>111</v>
-      </c>
-      <c r="J146" t="s">
-        <v>107</v>
-      </c>
-      <c r="K146" t="s">
-        <v>318</v>
-      </c>
-      <c r="L146" t="s">
-        <v>111</v>
-      </c>
-      <c r="M146" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="B147" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C147" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="D147" t="s">
         <v>109</v>
       </c>
       <c r="E147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F147" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="B150" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="C150" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="D150" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E150" t="s">
         <v>111</v>
       </c>
       <c r="J150" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="K150" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="L150" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B158" t="s">
-        <v>336</v>
-      </c>
-      <c r="C158" t="s">
-        <v>336</v>
-      </c>
-      <c r="D158" t="s">
-        <v>109</v>
-      </c>
-      <c r="E158" t="s">
-        <v>110</v>
-      </c>
-      <c r="F158" t="s">
-        <v>111</v>
-      </c>
-      <c r="J158" t="s">
-        <v>337</v>
-      </c>
-      <c r="K158" t="s">
-        <v>338</v>
-      </c>
-      <c r="L158" t="s">
-        <v>109</v>
-      </c>
-      <c r="M158" t="s">
-        <v>110</v>
-      </c>
-      <c r="N158" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" ht="139.5" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="186" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="93" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="177" spans="1:21" ht="46.5" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21" ht="46.5" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21" ht="46.5" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21" ht="69.75" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="B180" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C180" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="D180" t="s">
         <v>109</v>
       </c>
       <c r="J180" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="K180" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="L180" t="s">
         <v>109</v>
       </c>
       <c r="M180" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N180" t="s">
         <v>111</v>
       </c>
-      <c r="R180" t="s">
-        <v>364</v>
-      </c>
-      <c r="S180" t="s">
-        <v>365</v>
-      </c>
-      <c r="T180" t="s">
-        <v>150</v>
-      </c>
-      <c r="U180" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="B181" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="C181" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="D181" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J181" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="K181" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="L181" t="s">
         <v>109</v>
@@ -3632,29 +3296,29 @@
         <v>110</v>
       </c>
       <c r="N181" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O181" t="s">
         <v>111</v>
       </c>
       <c r="P181" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="B183" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="C183" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="D183" t="s">
         <v>109</v>
@@ -3663,21 +3327,21 @@
         <v>110</v>
       </c>
       <c r="F183" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G183" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="B184" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="C184" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="D184" t="s">
         <v>110</v>
@@ -3686,152 +3350,140 @@
         <v>111</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="B190" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C190" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="D190" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="E190" t="s">
+        <v>149</v>
+      </c>
+      <c r="F190" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="B191" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C191" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="D191" t="s">
         <v>109</v>
       </c>
       <c r="J191" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="K191" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="L191" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21" ht="46.5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="M191" t="s">
+        <v>112</v>
+      </c>
+      <c r="N191" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="B192" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C192" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="D192" t="s">
         <v>110</v>
       </c>
       <c r="E192" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B193" t="s">
-        <v>364</v>
-      </c>
-      <c r="C193" t="s">
-        <v>389</v>
-      </c>
-      <c r="D193" t="s">
-        <v>109</v>
-      </c>
-      <c r="E193" t="s">
-        <v>110</v>
-      </c>
-      <c r="F193" t="s">
-        <v>150</v>
-      </c>
-      <c r="G193" t="s">
-        <v>111</v>
-      </c>
-      <c r="H193" t="s">
-        <v>190</v>
-      </c>
-      <c r="I193" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="B198" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C198" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="D198" t="s">
         <v>109</v>
       </c>
       <c r="J198" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K198" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="L198" t="s">
         <v>109</v>
@@ -3839,16 +3491,19 @@
       <c r="M198" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="N198" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="B199" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C199" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="D199" t="s">
         <v>109</v>
@@ -3856,98 +3511,125 @@
       <c r="E199" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" ht="93" x14ac:dyDescent="0.35">
+      <c r="F199" t="s">
+        <v>149</v>
+      </c>
+      <c r="G199" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="93" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="B200" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C200" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="D200" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="J200" t="s">
+        <v>385</v>
+      </c>
+      <c r="K200" t="s">
+        <v>392</v>
+      </c>
+      <c r="L200" t="s">
+        <v>110</v>
+      </c>
+      <c r="M200" t="s">
+        <v>149</v>
+      </c>
+      <c r="N200" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="B201" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="C201" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="D201" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="E201" t="s">
+        <v>149</v>
+      </c>
+      <c r="F201" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" ht="69.75" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="B207" t="s">
         <v>107</v>
       </c>
       <c r="C207" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="D207" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="209" spans="1:68" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="210" spans="1:68" ht="46.5" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="211" spans="1:68" ht="93" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="93" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="B211" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C211" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D211" t="s">
         <v>109</v>
@@ -3956,97 +3638,16 @@
         <v>110</v>
       </c>
       <c r="J211" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="K211" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="L211" t="s">
         <v>110</v>
       </c>
       <c r="M211" t="s">
         <v>111</v>
-      </c>
-      <c r="R211" t="s">
-        <v>415</v>
-      </c>
-      <c r="S211" t="s">
-        <v>417</v>
-      </c>
-      <c r="T211" t="s">
-        <v>109</v>
-      </c>
-      <c r="U211" t="s">
-        <v>110</v>
-      </c>
-      <c r="V211" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z211" t="s">
-        <v>418</v>
-      </c>
-      <c r="AA211" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB211" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC211" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH211" t="s">
-        <v>361</v>
-      </c>
-      <c r="AI211" t="s">
-        <v>420</v>
-      </c>
-      <c r="AJ211" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK211" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP211" t="s">
-        <v>361</v>
-      </c>
-      <c r="AQ211" t="s">
-        <v>421</v>
-      </c>
-      <c r="AR211" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX211" t="s">
-        <v>361</v>
-      </c>
-      <c r="AY211" t="s">
-        <v>422</v>
-      </c>
-      <c r="AZ211" t="s">
-        <v>109</v>
-      </c>
-      <c r="BA211" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB211" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF211" t="s">
-        <v>361</v>
-      </c>
-      <c r="BG211" t="s">
-        <v>423</v>
-      </c>
-      <c r="BH211" t="s">
-        <v>110</v>
-      </c>
-      <c r="BN211" t="s">
-        <v>418</v>
-      </c>
-      <c r="BO211" t="s">
-        <v>424</v>
-      </c>
-      <c r="BP211" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
